--- a/設計書類_レビュー前/画面遷移図 part1.xlsx
+++ b/設計書類_レビュー前/画面遷移図 part1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\設計書類_レビュー前\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6636" yWindow="780" windowWidth="18876" windowHeight="15588" activeTab="2"/>
+    <workbookView xWindow="6630" yWindow="780" windowWidth="18870" windowHeight="15585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="18" r:id="rId1"/>
@@ -809,6 +809,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,30 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3090,14 +3090,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>165101</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -3108,8 +3108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4610100" y="1225550"/>
-          <a:ext cx="196850" cy="139700"/>
+          <a:off x="4927601" y="1346200"/>
+          <a:ext cx="211137" cy="168275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7489,138 +7489,138 @@
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="4"/>
+    <col min="1" max="16384" width="2.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="49" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="65" t="s">
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="65" t="s">
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="68"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="50"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="66" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="66" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="70"/>
-    </row>
-    <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="52"/>
+    </row>
+    <row r="3" spans="1:55" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.15">
@@ -10529,17 +10529,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10555,142 +10555,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="4"/>
+    <col min="1" max="16384" width="2.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="49" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="65" t="s">
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="65" t="s">
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="68"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="50"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="66" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="66" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="70"/>
-    </row>
-    <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="52"/>
+    </row>
+    <row r="3" spans="1:55" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.15">
@@ -10807,7 +10807,7 @@
       <c r="BB5" s="2"/>
       <c r="BC5" s="3"/>
     </row>
-    <row r="6" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -10936,7 +10936,7 @@
       <c r="BB8" s="2"/>
       <c r="BC8" s="3"/>
     </row>
-    <row r="9" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -11298,7 +11298,7 @@
       <c r="BB18" s="2"/>
       <c r="BC18" s="3"/>
     </row>
-    <row r="19" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -11962,7 +11962,7 @@
       <c r="BB32" s="2"/>
       <c r="BC32" s="3"/>
     </row>
-    <row r="33" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -12056,7 +12056,7 @@
       <c r="BB35" s="2"/>
       <c r="BC35" s="3"/>
     </row>
-    <row r="36" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -12149,7 +12149,7 @@
       <c r="BB38" s="2"/>
       <c r="BC38" s="3"/>
     </row>
-    <row r="39" spans="1:55" ht="12.6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:55" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -12374,7 +12374,7 @@
       <c r="BB45" s="2"/>
       <c r="BC45" s="3"/>
     </row>
-    <row r="46" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -12784,17 +12784,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12810,142 +12810,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="4"/>
+    <col min="1" max="16384" width="2.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="49" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="65" t="s">
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="65" t="s">
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="68"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="50"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="66" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="66" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="70"/>
-    </row>
-    <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="52"/>
+    </row>
+    <row r="3" spans="1:55" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.15">
@@ -13062,7 +13062,7 @@
       <c r="BB5" s="2"/>
       <c r="BC5" s="3"/>
     </row>
-    <row r="6" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -13191,7 +13191,7 @@
       <c r="BB8" s="2"/>
       <c r="BC8" s="3"/>
     </row>
-    <row r="9" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -13553,7 +13553,7 @@
       <c r="BB18" s="2"/>
       <c r="BC18" s="3"/>
     </row>
-    <row r="19" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -14217,7 +14217,7 @@
       <c r="BB32" s="2"/>
       <c r="BC32" s="3"/>
     </row>
-    <row r="33" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -14307,7 +14307,7 @@
       <c r="BB35" s="2"/>
       <c r="BC35" s="3"/>
     </row>
-    <row r="36" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -14392,7 +14392,7 @@
       <c r="BB38" s="2"/>
       <c r="BC38" s="3"/>
     </row>
-    <row r="39" spans="1:55" ht="12.6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:55" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -14581,7 +14581,7 @@
       <c r="BB45" s="2"/>
       <c r="BC45" s="3"/>
     </row>
-    <row r="46" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -14690,7 +14690,7 @@
       <c r="BB48" s="2"/>
       <c r="BC48" s="3"/>
     </row>
-    <row r="49" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -14838,7 +14838,7 @@
       <c r="BB52" s="2"/>
       <c r="BC52" s="3"/>
     </row>
-    <row r="53" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -14970,7 +14970,7 @@
       <c r="BB55" s="2"/>
       <c r="BC55" s="2"/>
     </row>
-    <row r="56" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V56" s="26"/>
       <c r="W56" s="27"/>
       <c r="X56" s="27"/>
@@ -15014,7 +15014,7 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="16"/>
     </row>
-    <row r="59" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V59" s="15"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
@@ -15028,7 +15028,7 @@
       <c r="AK59" s="18"/>
       <c r="AL59" s="19"/>
     </row>
-    <row r="60" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V60" s="15"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
@@ -15066,7 +15066,7 @@
       <c r="AK62" s="24"/>
       <c r="AL62" s="25"/>
     </row>
-    <row r="63" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V63" s="15"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -15110,7 +15110,7 @@
       <c r="AK65" s="2"/>
       <c r="AL65" s="16"/>
     </row>
-    <row r="66" spans="22:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="22:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V66" s="17"/>
       <c r="W66" s="18"/>
       <c r="X66" s="18"/>
@@ -15176,7 +15176,7 @@
       <c r="AK72" s="2"/>
       <c r="AL72" s="16"/>
     </row>
-    <row r="73" spans="22:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="22:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AG73" s="17"/>
       <c r="AH73" s="18"/>
       <c r="AI73" s="18"/>
@@ -15184,7 +15184,7 @@
       <c r="AK73" s="18"/>
       <c r="AL73" s="19"/>
     </row>
-    <row r="75" spans="22:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="22:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="22:38" x14ac:dyDescent="0.15">
       <c r="AG76" s="29"/>
       <c r="AH76" s="30"/>
@@ -15203,7 +15203,7 @@
       <c r="AK77" s="33"/>
       <c r="AL77" s="34"/>
     </row>
-    <row r="78" spans="22:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="22:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AG78" s="35"/>
       <c r="AH78" s="36"/>
       <c r="AI78" s="36"/>
@@ -15293,7 +15293,7 @@
       <c r="AK87" s="2"/>
       <c r="AL87" s="16"/>
     </row>
-    <row r="88" spans="33:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="33:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AG88" s="17"/>
       <c r="AH88" s="18"/>
       <c r="AI88" s="18"/>
@@ -15301,7 +15301,7 @@
       <c r="AK88" s="18"/>
       <c r="AL88" s="19"/>
     </row>
-    <row r="90" spans="33:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="33:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="33:38" x14ac:dyDescent="0.15">
       <c r="AG91" s="29"/>
       <c r="AH91" s="30"/>
@@ -15318,7 +15318,7 @@
       <c r="AK92" s="33"/>
       <c r="AL92" s="34"/>
     </row>
-    <row r="93" spans="33:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="33:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AG93" s="35"/>
       <c r="AH93" s="36"/>
       <c r="AI93" s="36"/>
@@ -15398,7 +15398,7 @@
       <c r="AK102" s="2"/>
       <c r="AL102" s="16"/>
     </row>
-    <row r="103" spans="33:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="33:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AG103" s="17"/>
       <c r="AH103" s="18"/>
       <c r="AI103" s="18"/>
@@ -15408,17 +15408,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15438,138 +15438,138 @@
       <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="4"/>
+    <col min="1" max="16384" width="2.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="49" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="65" t="s">
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="65" t="s">
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="68"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="50"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="66" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="66" t="s">
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="70"/>
-    </row>
-    <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="52"/>
+    </row>
+    <row r="3" spans="1:55" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.15">
@@ -18468,17 +18468,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/設計書類_レビュー前/画面遷移図 part1.xlsx
+++ b/設計書類_レビュー前/画面遷移図 part1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="780" windowWidth="18870" windowHeight="15585" activeTab="1"/>
+    <workbookView xWindow="6636" yWindow="780" windowWidth="18876" windowHeight="15588"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="18" r:id="rId1"/>
@@ -809,30 +809,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,6 +856,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7485,142 +7485,142 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="4"/>
+    <col min="1" max="16384" width="2.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="57" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="55" t="s">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="55" t="s">
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="50"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="68"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="56" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="52"/>
-    </row>
-    <row r="3" spans="1:55" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="70"/>
+    </row>
+    <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.15">
@@ -10529,17 +10529,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10555,142 +10555,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="4"/>
+    <col min="1" max="16384" width="2.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="57" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="55" t="s">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="55" t="s">
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="50"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="68"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="56" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="52"/>
-    </row>
-    <row r="3" spans="1:55" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="70"/>
+    </row>
+    <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.15">
@@ -10807,7 +10807,7 @@
       <c r="BB5" s="2"/>
       <c r="BC5" s="3"/>
     </row>
-    <row r="6" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -10936,7 +10936,7 @@
       <c r="BB8" s="2"/>
       <c r="BC8" s="3"/>
     </row>
-    <row r="9" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -11298,7 +11298,7 @@
       <c r="BB18" s="2"/>
       <c r="BC18" s="3"/>
     </row>
-    <row r="19" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -11962,7 +11962,7 @@
       <c r="BB32" s="2"/>
       <c r="BC32" s="3"/>
     </row>
-    <row r="33" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -12056,7 +12056,7 @@
       <c r="BB35" s="2"/>
       <c r="BC35" s="3"/>
     </row>
-    <row r="36" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -12149,7 +12149,7 @@
       <c r="BB38" s="2"/>
       <c r="BC38" s="3"/>
     </row>
-    <row r="39" spans="1:55" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:55" ht="12.6" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -12374,7 +12374,7 @@
       <c r="BB45" s="2"/>
       <c r="BC45" s="3"/>
     </row>
-    <row r="46" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -12784,17 +12784,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12814,138 +12814,138 @@
       <selection activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="4"/>
+    <col min="1" max="16384" width="2.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="57" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="55" t="s">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="55" t="s">
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="50"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="68"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="56" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="52"/>
-    </row>
-    <row r="3" spans="1:55" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="70"/>
+    </row>
+    <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.15">
@@ -13062,7 +13062,7 @@
       <c r="BB5" s="2"/>
       <c r="BC5" s="3"/>
     </row>
-    <row r="6" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -13191,7 +13191,7 @@
       <c r="BB8" s="2"/>
       <c r="BC8" s="3"/>
     </row>
-    <row r="9" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -13553,7 +13553,7 @@
       <c r="BB18" s="2"/>
       <c r="BC18" s="3"/>
     </row>
-    <row r="19" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -14217,7 +14217,7 @@
       <c r="BB32" s="2"/>
       <c r="BC32" s="3"/>
     </row>
-    <row r="33" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -14307,7 +14307,7 @@
       <c r="BB35" s="2"/>
       <c r="BC35" s="3"/>
     </row>
-    <row r="36" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -14392,7 +14392,7 @@
       <c r="BB38" s="2"/>
       <c r="BC38" s="3"/>
     </row>
-    <row r="39" spans="1:55" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:55" ht="12.6" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -14581,7 +14581,7 @@
       <c r="BB45" s="2"/>
       <c r="BC45" s="3"/>
     </row>
-    <row r="46" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -14690,7 +14690,7 @@
       <c r="BB48" s="2"/>
       <c r="BC48" s="3"/>
     </row>
-    <row r="49" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -14838,7 +14838,7 @@
       <c r="BB52" s="2"/>
       <c r="BC52" s="3"/>
     </row>
-    <row r="53" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -14970,7 +14970,7 @@
       <c r="BB55" s="2"/>
       <c r="BC55" s="2"/>
     </row>
-    <row r="56" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V56" s="26"/>
       <c r="W56" s="27"/>
       <c r="X56" s="27"/>
@@ -15014,7 +15014,7 @@
       <c r="AK58" s="2"/>
       <c r="AL58" s="16"/>
     </row>
-    <row r="59" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V59" s="15"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
@@ -15028,7 +15028,7 @@
       <c r="AK59" s="18"/>
       <c r="AL59" s="19"/>
     </row>
-    <row r="60" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V60" s="15"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
@@ -15066,7 +15066,7 @@
       <c r="AK62" s="24"/>
       <c r="AL62" s="25"/>
     </row>
-    <row r="63" spans="1:55" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V63" s="15"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
@@ -15110,7 +15110,7 @@
       <c r="AK65" s="2"/>
       <c r="AL65" s="16"/>
     </row>
-    <row r="66" spans="22:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="22:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="V66" s="17"/>
       <c r="W66" s="18"/>
       <c r="X66" s="18"/>
@@ -15176,7 +15176,7 @@
       <c r="AK72" s="2"/>
       <c r="AL72" s="16"/>
     </row>
-    <row r="73" spans="22:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="22:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AG73" s="17"/>
       <c r="AH73" s="18"/>
       <c r="AI73" s="18"/>
@@ -15184,7 +15184,7 @@
       <c r="AK73" s="18"/>
       <c r="AL73" s="19"/>
     </row>
-    <row r="75" spans="22:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="22:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="22:38" x14ac:dyDescent="0.15">
       <c r="AG76" s="29"/>
       <c r="AH76" s="30"/>
@@ -15203,7 +15203,7 @@
       <c r="AK77" s="33"/>
       <c r="AL77" s="34"/>
     </row>
-    <row r="78" spans="22:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="22:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AG78" s="35"/>
       <c r="AH78" s="36"/>
       <c r="AI78" s="36"/>
@@ -15293,7 +15293,7 @@
       <c r="AK87" s="2"/>
       <c r="AL87" s="16"/>
     </row>
-    <row r="88" spans="33:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="33:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AG88" s="17"/>
       <c r="AH88" s="18"/>
       <c r="AI88" s="18"/>
@@ -15301,7 +15301,7 @@
       <c r="AK88" s="18"/>
       <c r="AL88" s="19"/>
     </row>
-    <row r="90" spans="33:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="33:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="33:38" x14ac:dyDescent="0.15">
       <c r="AG91" s="29"/>
       <c r="AH91" s="30"/>
@@ -15318,7 +15318,7 @@
       <c r="AK92" s="33"/>
       <c r="AL92" s="34"/>
     </row>
-    <row r="93" spans="33:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="33:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AG93" s="35"/>
       <c r="AH93" s="36"/>
       <c r="AI93" s="36"/>
@@ -15398,7 +15398,7 @@
       <c r="AK102" s="2"/>
       <c r="AL102" s="16"/>
     </row>
-    <row r="103" spans="33:38" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="33:38" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AG103" s="17"/>
       <c r="AH103" s="18"/>
       <c r="AI103" s="18"/>
@@ -15408,17 +15408,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15438,138 +15438,138 @@
       <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="4"/>
+    <col min="1" max="16384" width="2.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="57" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="55" t="s">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="55" t="s">
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="50"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="68"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="56" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="56" t="s">
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="52"/>
-    </row>
-    <row r="3" spans="1:55" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="70"/>
+    </row>
+    <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.15">
@@ -18468,17 +18468,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/設計書類_レビュー前/画面遷移図 part1.xlsx
+++ b/設計書類_レビュー前/画面遷移図 part1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\設計書類_レビュー前\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6636" yWindow="780" windowWidth="18876" windowHeight="15588"/>
+    <workbookView xWindow="6636" yWindow="780" windowWidth="18876" windowHeight="15588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="18" r:id="rId1"/>
@@ -3090,14 +3090,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>165101</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -3108,8 +3108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4927601" y="1346200"/>
-          <a:ext cx="211137" cy="168275"/>
+          <a:off x="4610100" y="1225550"/>
+          <a:ext cx="196850" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7485,7 +7485,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
@@ -10555,8 +10555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AX25" sqref="AX25"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
@@ -12810,7 +12810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC103"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>

--- a/設計書類_レビュー前/画面遷移図 part1.xlsx
+++ b/設計書類_レビュー前/画面遷移図 part1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\設計書類_レビュー前\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6636" yWindow="780" windowWidth="18876" windowHeight="15588" activeTab="2"/>
+    <workbookView xWindow="6636" yWindow="780" windowWidth="18876" windowHeight="15588"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="18" r:id="rId1"/>
@@ -3090,14 +3090,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>165101</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -3108,8 +3108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4610100" y="1225550"/>
-          <a:ext cx="196850" cy="139700"/>
+          <a:off x="4927601" y="1346200"/>
+          <a:ext cx="211137" cy="168275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7485,7 +7485,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
@@ -10555,8 +10555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
@@ -12810,7 +12810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>

--- a/設計書類_レビュー前/画面遷移図 part1.xlsx
+++ b/設計書類_レビュー前/画面遷移図 part1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\システム開発演習\画面遷移図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\D_Group_project\設計書類_レビュー前\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -452,6 +452,7 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -461,7 +462,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +496,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -989,30 +996,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1061,6 +1044,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8293,130 +8309,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="72" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="70" t="s">
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="70" t="s">
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="65"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="83"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="71" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="71" t="s">
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="67"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="85"/>
     </row>
     <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -11327,17 +11343,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AB2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11354,7 +11370,7 @@
   <dimension ref="A1:BD78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ26" sqref="AQ26"/>
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
@@ -11363,130 +11379,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="72" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="70" t="s">
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="70" t="s">
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="65"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="83"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="71" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="71" t="s">
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="67"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="85"/>
     </row>
     <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -11963,12 +11979,12 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -12022,14 +12038,14 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42" t="s">
+      <c r="F13" s="91"/>
+      <c r="G13" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -12085,12 +12101,12 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="46"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -14304,17 +14320,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14340,130 +14356,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="72" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="70" t="s">
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="70" t="s">
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="65"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="83"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="71" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="71" t="s">
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="67"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="85"/>
     </row>
     <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -16928,17 +16944,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -16964,130 +16980,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="72" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="70" t="s">
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="70" t="s">
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="65"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="83"/>
     </row>
     <row r="2" spans="1:55" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="71" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="71" t="s">
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="67"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="85"/>
     </row>
     <row r="3" spans="1:55" ht="10.199999999999999" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
@@ -19988,17 +20004,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AO1"/>
     <mergeCell ref="AT1:BC1"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
